--- a/scene_cat_exp_2023.2/input_files/9_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2/input_files/9_scenecat_block_order.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_1</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>kitchens_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/scene_cat_exp_2023.2/input_files/9_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2/input_files/9_scenecat_block_order.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>living_rooms_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_2</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
     </row>
